--- a/Testcases .xlsx
+++ b/Testcases .xlsx
@@ -209,7 +209,7 @@
     <t>clickByXpath</t>
   </si>
   <si>
-    <t>fdsfs</t>
+    <t>fdsfs dfsfjk</t>
   </si>
 </sst>
 </file>
